--- a/biology/Médecine/Grossesse_hétérotopique/Grossesse_hétérotopique.xlsx
+++ b/biology/Médecine/Grossesse_hétérotopique/Grossesse_hétérotopique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grossesse hétérotopique ou grossesse ditopique est l'association d'une grossesse intra-utérine et d'une grossesse extra-utérine. Exceptionnelle, elle est devenue plus fréquente depuis l'essor de la procréation médicalement assistée et notamment des inducteurs de l'ovulation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exceptionnelle — la prévalence, dans la population générale, est estimée entre 1⁄10 000 et  1⁄30 000 — la grossesse hétérotopique est devenue plus fréquente depuis l'essor de la procréation médicalement assistée et notamment des inducteurs de l'ovulation[1] : le risque est estimé à un sur 100, pour les grossesses obtenues dans ces conditions[2],[3].
-Encore plus rare, une grossesse hétérotopique avec 3 semaines d'écart a été constaté en 2023 à Clermont-Ferrand[4]. Le premier embryon, situé dans le cul-de-sac de Douglas, a été retiré pour permettre à la grosse intra-utérine d'aller à son terme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exceptionnelle — la prévalence, dans la population générale, est estimée entre 1⁄10 000 et  1⁄30 000 — la grossesse hétérotopique est devenue plus fréquente depuis l'essor de la procréation médicalement assistée et notamment des inducteurs de l'ovulation : le risque est estimé à un sur 100, pour les grossesses obtenues dans ces conditions,.
+Encore plus rare, une grossesse hétérotopique avec 3 semaines d'écart a été constaté en 2023 à Clermont-Ferrand. Le premier embryon, situé dans le cul-de-sac de Douglas, a été retiré pour permettre à la grosse intra-utérine d'aller à son terme.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,16 +610,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -624,10 +638,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -635,7 +651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
+          <t>Grossesse_hétérotopique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -650,36 +666,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Grossesse_h%C3%A9t%C3%A9rotopique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grossesse_h%C3%A9t%C3%A9rotopique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
